--- a/OnlineCoursesAnalyzerTests/Data/DataHandlerTestsData/EducationalAchievmentStandartData.xlsx
+++ b/OnlineCoursesAnalyzerTests/Data/DataHandlerTestsData/EducationalAchievmentStandartData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="80">
   <si>
     <t>Student ID</t>
   </si>
@@ -165,9 +165,6 @@
     <t>1.0</t>
   </si>
   <si>
-    <t>100.0</t>
-  </si>
-  <si>
     <t>Not Available</t>
   </si>
   <si>
@@ -198,9 +195,6 @@
     <t>0.9</t>
   </si>
   <si>
-    <t>0.887012987013</t>
-  </si>
-  <si>
     <t>st000004@student.spbu.ru</t>
   </si>
   <si>
@@ -216,18 +210,12 @@
     <t>0.5</t>
   </si>
   <si>
-    <t>0.94696969697</t>
-  </si>
-  <si>
     <t>st000003</t>
   </si>
   <si>
     <t>st000004</t>
   </si>
   <si>
-    <t>90.0</t>
-  </si>
-  <si>
     <t>Иванов</t>
   </si>
   <si>
@@ -265,6 +253,12 @@
   </si>
   <si>
     <t>verified_29.11.21_матмех</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.75</t>
   </si>
 </sst>
 </file>
@@ -675,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG15"/>
+  <dimension ref="A1:AG18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -689,6 +683,10 @@
     <col min="5" max="5" width="13.44140625" customWidth="1"/>
     <col min="6" max="6" width="16.5546875" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="20" max="20" width="44.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="26" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="24.21875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="27.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -804,18 +802,18 @@
         <v>34</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>36</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="13" t="s">
         <v>38</v>
       </c>
       <c r="I2" s="6" t="s">
@@ -855,7 +853,7 @@
         <v>38</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="V2" s="6" t="s">
         <v>38</v>
@@ -873,7 +871,7 @@
         <v>38</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AB2" s="6" t="s">
         <v>40</v>
@@ -902,22 +900,22 @@
         <v>44</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>68</v>
+      <c r="H3" s="12">
+        <v>10</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>38</v>
@@ -956,7 +954,7 @@
         <v>38</v>
       </c>
       <c r="U3" s="10" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="V3" s="10" t="s">
         <v>38</v>
@@ -971,7 +969,7 @@
         <v>38</v>
       </c>
       <c r="Z3" s="10" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="AA3" s="10" t="s">
         <v>39</v>
@@ -1003,88 +1001,88 @@
         <v>46</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="13">
+        <v>10</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="V4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="W4" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X4" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Y4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Z4" s="6" t="s">
-        <v>38</v>
+      <c r="Z4" s="13">
+        <v>1</v>
       </c>
       <c r="AA4" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AB4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AC4" s="6" t="s">
+      <c r="AD4" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="AD4" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="AE4" s="6" t="s">
         <v>42</v>
@@ -1101,56 +1099,56 @@
         <v>2714096</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="12">
+        <v>100</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="12">
-        <v>60</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="M5" s="10" t="s">
+      <c r="N5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="R5" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="N5" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="O5" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="P5" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q5" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="S5" s="10" t="s">
         <v>47</v>
       </c>
@@ -1158,34 +1156,34 @@
         <v>47</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="V5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="W5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="X5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z5" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="W5" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="X5" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y5" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z5" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA5" s="10" t="s">
+      <c r="AB5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AB5" s="10" t="s">
+      <c r="AC5" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AC5" s="10" t="s">
+      <c r="AD5" s="10" t="s">
         <v>52</v>
-      </c>
-      <c r="AD5" s="10" t="s">
-        <v>53</v>
       </c>
       <c r="AE5" s="10" t="s">
         <v>42</v>
@@ -1202,91 +1200,91 @@
         <v>2714100</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="W6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="X6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z6" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="13">
-        <v>75</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="S6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="T6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="U6" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="V6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="W6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="X6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z6" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="AA6" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AB6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AC6" s="6" t="s">
+      <c r="AD6" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="AD6" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="AE6" s="6" t="s">
         <v>42</v>
@@ -1480,10 +1478,19 @@
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="F14" s="10"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="F15" s="6"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F18" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
